--- a/data/trans_orig/P1804_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>81219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65573</v>
+        <v>64525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100277</v>
+        <v>97680</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07200287244749334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05813212096219923</v>
+        <v>0.05720355964738124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08889863204511694</v>
+        <v>0.08659566724902309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -763,19 +763,19 @@
         <v>119184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98845</v>
+        <v>98370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143496</v>
+        <v>139801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09462384032714705</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07847578788750019</v>
+        <v>0.07809858964370964</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1139252452468302</v>
+        <v>0.1109920734334907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -784,19 +784,19 @@
         <v>200404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172969</v>
+        <v>173994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>231298</v>
+        <v>227730</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0839366071328615</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07244586884983721</v>
+        <v>0.07287522729964656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09687642227993835</v>
+        <v>0.09538205548612791</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1046778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1027720</v>
+        <v>1030317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1062424</v>
+        <v>1063472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9279971275525066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9111013679548831</v>
+        <v>0.9134043327509769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9418678790378008</v>
+        <v>0.9427964403526188</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1077</v>
@@ -834,19 +834,19 @@
         <v>1140377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1116065</v>
+        <v>1119760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1160716</v>
+        <v>1161191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.905376159672853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8860747547531698</v>
+        <v>0.8890079265665093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9215242121124998</v>
+        <v>0.9219014103562904</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2065</v>
@@ -855,19 +855,19 @@
         <v>2187154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2156260</v>
+        <v>2159828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2214589</v>
+        <v>2213564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9160633928671384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9031235777200617</v>
+        <v>0.904617944513872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9275541311501627</v>
+        <v>0.9271247727003534</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>51501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38531</v>
+        <v>39070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66346</v>
+        <v>67210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05666810754191474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04239677608902871</v>
+        <v>0.04298989525726587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07300215519994821</v>
+        <v>0.07395213236799282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -980,19 +980,19 @@
         <v>103213</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84048</v>
+        <v>83737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124759</v>
+        <v>127135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1025485749647943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08350771462086153</v>
+        <v>0.08319832419021589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1239562564726</v>
+        <v>0.1263169982482764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -1001,19 +1001,19 @@
         <v>154714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130259</v>
+        <v>131533</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>179110</v>
+        <v>179814</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08077793641391467</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06800979443456395</v>
+        <v>0.06867485644280577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09351545584615482</v>
+        <v>0.09388279060471713</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>857324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>842479</v>
+        <v>841615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>870294</v>
+        <v>869755</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9433318924580852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.926997844800052</v>
+        <v>0.9260478676320071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9576032239109713</v>
+        <v>0.9570101047427341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>860</v>
@@ -1051,19 +1051,19 @@
         <v>903262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>881716</v>
+        <v>879340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>922427</v>
+        <v>922738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8974514250352057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8760437435274</v>
+        <v>0.8736830017517239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9164922853791385</v>
+        <v>0.9168016758097846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1690</v>
@@ -1072,19 +1072,19 @@
         <v>1760586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1736190</v>
+        <v>1735486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1785041</v>
+        <v>1783767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9192220635860854</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9064845441538452</v>
+        <v>0.9061172093952828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9319902055654362</v>
+        <v>0.9313251435571941</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>43668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32129</v>
+        <v>31293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57147</v>
+        <v>58283</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05301100898488223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03900322301341056</v>
+        <v>0.03798865726810635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06937303902962831</v>
+        <v>0.07075304807368345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1197,19 +1197,19 @@
         <v>76394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60113</v>
+        <v>61597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96972</v>
+        <v>94997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09907641297692714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07796111498379733</v>
+        <v>0.07988669449662376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1257648592374246</v>
+        <v>0.1232035288694224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1218,19 +1218,19 @@
         <v>120062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100457</v>
+        <v>98505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144248</v>
+        <v>142997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07528259770803854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06298986894567148</v>
+        <v>0.0617659083531195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09044819965617937</v>
+        <v>0.08966344452499589</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>780091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>766612</v>
+        <v>765476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>791630</v>
+        <v>792466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9469889910151178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9306269609703718</v>
+        <v>0.9292469519263166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9609967769865895</v>
+        <v>0.9620113427318937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -1268,19 +1268,19 @@
         <v>694665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674087</v>
+        <v>676062</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>710946</v>
+        <v>709462</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9009235870230728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8742351407625755</v>
+        <v>0.8767964711305776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9220388850162027</v>
+        <v>0.9201133055033762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1404</v>
@@ -1289,19 +1289,19 @@
         <v>1474756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1450570</v>
+        <v>1451821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494361</v>
+        <v>1496313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9247174022919614</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9095518003438207</v>
+        <v>0.9103365554750044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9370101310543285</v>
+        <v>0.9382340916468808</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>37301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26540</v>
+        <v>26350</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51158</v>
+        <v>49794</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0736149974449858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05237708860427844</v>
+        <v>0.05200238327236497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1009626799759618</v>
+        <v>0.09827140772727151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1414,19 +1414,19 @@
         <v>52194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40275</v>
+        <v>39339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69425</v>
+        <v>69291</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1065846932671109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08224463618615763</v>
+        <v>0.08033364713290524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.141770975080205</v>
+        <v>0.14149680207218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -1435,19 +1435,19 @@
         <v>89495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71424</v>
+        <v>72501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108462</v>
+        <v>110301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08981853457322239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07168266808316781</v>
+        <v>0.0727634658483627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.10885421494232</v>
+        <v>0.1107000863964136</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>469400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>455543</v>
+        <v>456907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480161</v>
+        <v>480351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9263850025550142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8990373200240381</v>
+        <v>0.9017285922727285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9476229113957215</v>
+        <v>0.9479976167276349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>410</v>
@@ -1485,19 +1485,19 @@
         <v>437504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>420273</v>
+        <v>420407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449423</v>
+        <v>450359</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.893415306732889</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8582290249197959</v>
+        <v>0.8585031979278198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9177553638138429</v>
+        <v>0.9196663528670946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>845</v>
@@ -1506,19 +1506,19 @@
         <v>906903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>887936</v>
+        <v>886097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>924974</v>
+        <v>923897</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9101814654267776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8911457850576801</v>
+        <v>0.8892999136035864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9283173319168322</v>
+        <v>0.9272365341516373</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>213690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>188157</v>
+        <v>185479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>243324</v>
+        <v>244948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0634605309677921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05587795296153453</v>
+        <v>0.05508266652383654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07226128903351842</v>
+        <v>0.07274347938990765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>316</v>
@@ -1631,19 +1631,19 @@
         <v>350985</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313892</v>
+        <v>312984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>390093</v>
+        <v>389764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09951963329162021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08900211443177085</v>
+        <v>0.08874458174769619</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1106083170584934</v>
+        <v>0.1105152554553042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>523</v>
@@ -1652,19 +1652,19 @@
         <v>564675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>521130</v>
+        <v>518225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>610120</v>
+        <v>612305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08190723682555766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07559102681040701</v>
+        <v>0.07516954958459071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08849915958750189</v>
+        <v>0.08881610387563474</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3153592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3123958</v>
+        <v>3122334</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3179125</v>
+        <v>3181803</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9365394690322079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9277387109664814</v>
+        <v>0.9272565206100922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9441220470384654</v>
+        <v>0.9449173334761634</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3006</v>
@@ -1702,19 +1702,19 @@
         <v>3175807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3136699</v>
+        <v>3137028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3212900</v>
+        <v>3213808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9004803667083798</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8893916829415066</v>
+        <v>0.8894847445446957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9109978855682291</v>
+        <v>0.9112554182523037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6004</v>
@@ -1723,19 +1723,19 @@
         <v>6329400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6283955</v>
+        <v>6281770</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6372945</v>
+        <v>6375850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9180927631744423</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9115008404124981</v>
+        <v>0.9111838961243652</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.924408973189593</v>
+        <v>0.9248304504154093</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>30792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20448</v>
+        <v>20454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44769</v>
+        <v>44527</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0617394498123576</v>
+        <v>0.06173944981235759</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04099920136420219</v>
+        <v>0.04101143352617397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08976353078312757</v>
+        <v>0.08927897035635596</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -2088,19 +2088,19 @@
         <v>62354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49547</v>
+        <v>48744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77602</v>
+        <v>77991</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1001399107438219</v>
+        <v>0.100139910743822</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07957237261781933</v>
+        <v>0.07828345217962772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.124629137428873</v>
+        <v>0.1252539672447585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -2109,19 +2109,19 @@
         <v>93145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75390</v>
+        <v>76616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112038</v>
+        <v>113500</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08306146296232636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06722843808918681</v>
+        <v>0.06832195214641357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09990900778601366</v>
+        <v>0.1012125926814581</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>467947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>453970</v>
+        <v>454212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>478291</v>
+        <v>478285</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9382605501876425</v>
+        <v>0.9382605501876424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9102364692168724</v>
+        <v>0.910721029643644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9590007986357979</v>
+        <v>0.958988566473826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>775</v>
@@ -2159,19 +2159,19 @@
         <v>560310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>545062</v>
+        <v>544673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>573117</v>
+        <v>573920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8998600892561781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8753708625711273</v>
+        <v>0.8747460327552417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9204276273821808</v>
+        <v>0.9217165478203725</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1200</v>
@@ -2180,19 +2180,19 @@
         <v>1028258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1009365</v>
+        <v>1007903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1046013</v>
+        <v>1044787</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9169385370376737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9000909922139864</v>
+        <v>0.8987874073185417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9327715619108131</v>
+        <v>0.9316780478535867</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>32277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21659</v>
+        <v>21644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46034</v>
+        <v>46123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03361744631025664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02255851490177517</v>
+        <v>0.02254273650975785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04794569271705608</v>
+        <v>0.04803823354023454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -2305,19 +2305,19 @@
         <v>83780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69401</v>
+        <v>68416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100222</v>
+        <v>100358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07508185795589174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06219542624237504</v>
+        <v>0.06131265371795716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08981689487062033</v>
+        <v>0.08993907227392595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>150</v>
@@ -2326,19 +2326,19 @@
         <v>116057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97237</v>
+        <v>96454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138368</v>
+        <v>136976</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05590470423348074</v>
+        <v>0.05590470423348073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04683871118284648</v>
+        <v>0.04646172729634931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06665174622003207</v>
+        <v>0.06598106615053766</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>927860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>914103</v>
+        <v>914014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>938478</v>
+        <v>938493</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9663825536897435</v>
+        <v>0.9663825536897436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9520543072829442</v>
+        <v>0.9519617664597655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9774414850982249</v>
+        <v>0.9774572634902422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1490</v>
@@ -2376,19 +2376,19 @@
         <v>1032069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1015627</v>
+        <v>1015491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046448</v>
+        <v>1047433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9249181420441082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9101831051293798</v>
+        <v>0.9100609277260741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.937804573757625</v>
+        <v>0.9386873462820429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2367</v>
@@ -2397,19 +2397,19 @@
         <v>1959929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1937618</v>
+        <v>1939010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1978749</v>
+        <v>1979532</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9440952957665193</v>
+        <v>0.9440952957665192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9333482537799678</v>
+        <v>0.9340189338494624</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9531612888171533</v>
+        <v>0.9535382727036509</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>75784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57618</v>
+        <v>57584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102425</v>
+        <v>97871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07241764488631539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05505925388809404</v>
+        <v>0.05502645695572631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09787560163340739</v>
+        <v>0.09352419985279999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -2522,19 +2522,19 @@
         <v>82536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67212</v>
+        <v>67808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101177</v>
+        <v>97689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07895041519622846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06429208245007362</v>
+        <v>0.0648623513431961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09678135434845016</v>
+        <v>0.09344450460647022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -2543,19 +2543,19 @@
         <v>158320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134921</v>
+        <v>131985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186021</v>
+        <v>187164</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0756823723427376</v>
+        <v>0.07568237234273759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06449684293105924</v>
+        <v>0.06309354830245441</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08892434473719525</v>
+        <v>0.08947105468957847</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>970695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>944054</v>
+        <v>948608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>988861</v>
+        <v>988895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9275823551136846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9021243983665918</v>
+        <v>0.9064758001471998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9449407461119058</v>
+        <v>0.9449735430442734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1403</v>
@@ -2593,19 +2593,19 @@
         <v>962882</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>944241</v>
+        <v>947729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>978206</v>
+        <v>977610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9210495848037715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9032186456515487</v>
+        <v>0.9065554953935295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9357079175499263</v>
+        <v>0.9351376486568035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2365</v>
@@ -2614,19 +2614,19 @@
         <v>1933577</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1905876</v>
+        <v>1904733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1956976</v>
+        <v>1959912</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9243176276572626</v>
+        <v>0.9243176276572624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9110756552628049</v>
+        <v>0.9105289453104216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9355031570689408</v>
+        <v>0.9369064516975457</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>77734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61293</v>
+        <v>59742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97891</v>
+        <v>100518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07965137385570274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06280444159784786</v>
+        <v>0.06121514198993176</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.100305856306802</v>
+        <v>0.1029969756768261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -2739,19 +2739,19 @@
         <v>85907</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71489</v>
+        <v>71169</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103985</v>
+        <v>103646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09479521764947485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07888545195630438</v>
+        <v>0.07853180229441899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1147427903346003</v>
+        <v>0.1143690130629862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -2760,19 +2760,19 @@
         <v>163641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141085</v>
+        <v>141089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189412</v>
+        <v>191036</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0869429376705281</v>
+        <v>0.08694293767052809</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07495872759355522</v>
+        <v>0.07496083147920922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1006350996476777</v>
+        <v>0.1014975554964188</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>898195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>878038</v>
+        <v>875411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914636</v>
+        <v>916187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9203486261442972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8996941436931979</v>
+        <v>0.8970030243231739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9371955584021522</v>
+        <v>0.9387848580100682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1200</v>
@@ -2810,19 +2810,19 @@
         <v>820333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>802255</v>
+        <v>802594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>834751</v>
+        <v>835071</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9052047823505252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8852572096653999</v>
+        <v>0.8856309869370139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.921114548043696</v>
+        <v>0.9214681977055811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2070</v>
@@ -2831,19 +2831,19 @@
         <v>1718528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1692757</v>
+        <v>1691133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1741084</v>
+        <v>1741080</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9130570623294719</v>
+        <v>0.9130570623294718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8993649003523223</v>
+        <v>0.8985024445035809</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.925041272406445</v>
+        <v>0.9250391685207907</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>216587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181658</v>
+        <v>189094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>247312</v>
+        <v>250735</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06221465084434769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05218122262690359</v>
+        <v>0.05431732776857216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07104034911874166</v>
+        <v>0.07202361022101611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>434</v>
@@ -2956,19 +2956,19 @@
         <v>314577</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286633</v>
+        <v>285999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>349657</v>
+        <v>350129</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08524724961650447</v>
+        <v>0.08524724961650448</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07767467950528686</v>
+        <v>0.07750304876000756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09475368381125883</v>
+        <v>0.09488158225027628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>641</v>
@@ -2977,19 +2977,19 @@
         <v>531164</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>484458</v>
+        <v>487366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>579619</v>
+        <v>578128</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07406639032858202</v>
+        <v>0.074066390328582</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06755371542616301</v>
+        <v>0.06795918804606775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08082311045953687</v>
+        <v>0.08061520674443305</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3264697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3233972</v>
+        <v>3230549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3299626</v>
+        <v>3292190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9377853491556523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9289596508812583</v>
+        <v>0.927976389778984</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9478187773730967</v>
+        <v>0.9456826722314279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4868</v>
@@ -3027,19 +3027,19 @@
         <v>3375593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3340513</v>
+        <v>3340041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3403537</v>
+        <v>3404171</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9147527503834956</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9052463161887401</v>
+        <v>0.9051184177497229</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9223253204947131</v>
+        <v>0.9224969512399923</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8002</v>
@@ -3048,19 +3048,19 @@
         <v>6640291</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6591836</v>
+        <v>6593327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6686997</v>
+        <v>6684089</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9259336096714179</v>
+        <v>0.9259336096714178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9191768895404631</v>
+        <v>0.9193847932555668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.932446284573837</v>
+        <v>0.9320408119539322</v>
       </c>
     </row>
     <row r="18">
